--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,90 +482,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>a</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>a</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">insumo
-</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>d</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>jjj</t>
+          <t>d</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inventario.xlsx
+++ b/inventario.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +505,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Disponible</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -514,10 +518,8 @@
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
+      <c r="H2" s="2" t="n">
+        <v>45244.74174768518</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -541,12 +543,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">San </t>
+          <t>San Lorenzo 60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>En reparación</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -559,10 +561,8 @@
           <t>2022-02-05</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023-10-10</t>
-        </is>
+      <c r="H3" s="2" t="n">
+        <v>45209</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -586,12 +586,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Portabilidad</t>
+          <t>Las Heras 136</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Disponible</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -604,10 +604,8 @@
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2023-11-03</t>
-        </is>
+      <c r="H4" s="2" t="n">
+        <v>45233</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -626,12 +624,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GS-MNT-00001</t>
+          <t>GS-MNT-00002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Portabilidad</t>
+          <t>San Lorenzo 60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -672,12 +670,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Portabilidad</t>
+          <t>San Lorenzo 50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>En reparación</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -690,10 +688,8 @@
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
+      <c r="H6" s="2" t="n">
+        <v>45173</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -717,7 +713,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>San</t>
+          <t>Las Heras 136</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -735,10 +731,8 @@
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="H7" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -762,7 +756,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Las Heras 136</t>
+          <t>San Lorenzo 60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -780,10 +774,8 @@
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2023-11-01</t>
-        </is>
+      <c r="H8" s="2" t="n">
+        <v>45231</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -825,10 +817,8 @@
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="H9" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -838,7 +828,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -847,20 +837,232 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GS-356</t>
+          <t>GS-000000350</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>San Lorenzo 50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>sl60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>110</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GS-000000254</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>San Lorenzo 50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En reparación</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$160000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Mantenimiento completo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GS-000000360</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>San Lorenzo 50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$1800000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Formateo Imagen v7</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GS-23</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>San Lorenzo 50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Disponible</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>113</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GS-450</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>San Lorenzo 50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Disponible</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" s="2" t="n">
+        <v>45243.83643518519</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>114</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GS-000000450</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>San Lorenzo 50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Disponible</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45243.83679398148</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Aplicar img</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>115</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GS-000000226</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>San Lorenzo 50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Disponible</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" s="2" t="n">
+        <v>45244.7259375</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
